--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doris\Github\baernreither-data\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{543F668C-8546-46ED-B6D7-BFB20090692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -438,16 +437,13 @@
     <t>note</t>
   </si>
   <si>
-    <t>Signatur des Faksimiles aus Karton 5:fK_5-002-r 
-fK_5-002_v
-aber bei jenen Scans die aus Karton5 stammen:  
-fK5-002-r</t>
+    <t>Signatur des Faksimiles nach dem Schema: F_K-11_Bae_MF_6-2_001v [F = Faksimile; K =Karton; Short title; fortlaufende Nummer; v für verso und r für recto]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -578,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -855,29 +851,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.296875" customWidth="1"/>
-    <col min="2" max="2" width="34.296875" customWidth="1"/>
-    <col min="3" max="3" width="16.69921875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="45.5" customWidth="1"/>
-    <col min="5" max="5" width="29.69921875" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,13 +881,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -905,7 +901,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -919,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -929,7 +925,7 @@
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
@@ -939,7 +935,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
@@ -949,7 +945,7 @@
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -959,7 +955,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -969,7 +965,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -983,7 +979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
@@ -993,7 +989,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="8"/>
       <c r="C13" s="5" t="s">
@@ -1001,7 +997,7 @@
       </c>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +1007,7 @@
       <c r="C14" s="11"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
@@ -1021,7 +1017,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
@@ -1031,7 +1027,7 @@
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1045,7 +1041,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
@@ -1055,7 +1051,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
       <c r="C19" s="5" t="s">
@@ -1063,7 +1059,7 @@
       </c>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
@@ -1073,7 +1069,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>24</v>
       </c>
@@ -1083,7 +1079,7 @@
       <c r="C21" s="5"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>25</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>26</v>
       </c>
@@ -1107,7 +1103,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1119,7 +1115,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
@@ -1129,7 +1125,7 @@
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1139,7 +1135,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>30</v>
       </c>
@@ -1149,7 +1145,7 @@
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>31</v>
       </c>
@@ -1164,7 +1160,7 @@
       </c>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
       <c r="B29" s="9"/>
       <c r="C29" s="6" t="s">
@@ -1175,7 +1171,7 @@
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="11" t="s">
@@ -1185,7 +1181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
@@ -1195,7 +1191,7 @@
       <c r="C31" s="5"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>33</v>
       </c>
@@ -1205,7 +1201,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>34</v>
       </c>
@@ -1215,7 +1211,7 @@
       <c r="C33" s="5"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>35</v>
       </c>
@@ -1225,7 +1221,7 @@
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>36</v>
       </c>
@@ -1235,7 +1231,7 @@
       <c r="C35" s="5"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>37</v>
       </c>
@@ -1245,7 +1241,7 @@
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
         <v>38</v>
       </c>
@@ -1255,7 +1251,7 @@
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1265,7 +1261,7 @@
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
         <v>40</v>
       </c>
@@ -1275,7 +1271,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>41</v>
       </c>
@@ -1285,7 +1281,7 @@
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>42</v>
       </c>
@@ -1295,7 +1291,7 @@
       <c r="C41" s="5"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>43</v>
       </c>
@@ -1305,7 +1301,7 @@
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
         <v>44</v>
       </c>
@@ -1315,7 +1311,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>45</v>
       </c>
@@ -1329,7 +1325,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>47</v>
       </c>
@@ -1339,7 +1335,7 @@
       <c r="C45" s="5"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>48</v>
       </c>
@@ -1353,7 +1349,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>50</v>
       </c>
@@ -1361,7 +1357,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
@@ -1369,7 +1365,7 @@
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
         <v>52</v>
       </c>
@@ -1379,7 +1375,7 @@
       <c r="C49" s="5"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
@@ -1393,7 +1389,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>54</v>
       </c>
@@ -1403,7 +1399,7 @@
       <c r="C51" s="5"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="64" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>55</v>
       </c>
@@ -1417,7 +1413,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" s="9"/>
       <c r="C53" s="6" t="s">
@@ -1427,7 +1423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>58</v>
       </c>
@@ -1442,7 +1438,7 @@
       </c>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>59</v>
       </c>
@@ -1456,7 +1452,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>61</v>
       </c>
@@ -1470,7 +1466,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
       <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
@@ -1480,7 +1476,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
       <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
@@ -1488,7 +1484,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>115</v>
       </c>
@@ -1502,7 +1498,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>119</v>
       </c>
@@ -1516,7 +1512,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>123</v>
       </c>
@@ -1528,7 +1524,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>125</v>
       </c>
@@ -1542,7 +1538,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>129</v>
       </c>
@@ -1556,7 +1552,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>135</v>
       </c>
@@ -1566,571 +1562,571 @@
       <c r="C64" s="5"/>
       <c r="D64" s="3"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="1"/>
       <c r="C65" s="6"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6"/>
       <c r="B66" s="1"/>
       <c r="C66" s="6"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6"/>
       <c r="B67" s="1"/>
       <c r="C67" s="6"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="141">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>Signatur des Faksimiles nach dem Schema: F_K-11_Bae_MF_6-2_001v [F = Faksimile; K =Karton; Short title; fortlaufende Nummer; v für verso und r für recto]</t>
+  </si>
+  <si>
+    <t>"editorial" für editorische Sachkommentare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"editorialNote" </t>
+  </si>
+  <si>
+    <t>corresp</t>
+  </si>
+  <si>
+    <t>Verweis auf die entsprechende Textstelle oder Kommentar</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -572,6 +584,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -854,8 +868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1559,38 +1573,62 @@
       <c r="B64" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="6"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="1"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="6"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="1"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="6"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="1"/>
+      <c r="A67" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="6"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>Verweis auf die entsprechende Textstelle oder Kommentar</t>
+  </si>
+  <si>
+    <t>"insertion" - Einklebung; "insert" Einlage</t>
+  </si>
+  <si>
+    <t>subtypes? Zeitungsartikel, fremde, Baernreithers</t>
   </si>
 </sst>
 </file>
@@ -866,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="135" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,114 +1533,121 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
+    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D65" s="13"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="14"/>
       <c r="C66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="13"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="12"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="6"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6"/>
       <c r="B69" s="9"/>
       <c r="C69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A70" s="6"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
@@ -2170,6 +2183,12 @@
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -456,6 +456,9 @@
   </si>
   <si>
     <t>subtypes? Zeitungsartikel, fremde, Baernreithers</t>
+  </si>
+  <si>
+    <t>"identical" gleicher Text in beiden Varianten; "missing" fehlt in der anderen Version</t>
   </si>
 </sst>
 </file>
@@ -872,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E160"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="135" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="135" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1572,88 +1575,92 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C66" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="13"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="14"/>
       <c r="C67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D67" s="13"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="12"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D68" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B69" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="6"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6"/>
       <c r="B70" s="9"/>
       <c r="C70" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D71" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
@@ -2189,6 +2196,12 @@
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,24 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -561,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -595,9 +587,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -867,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -877,40 +872,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="135" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
     <col min="4" max="4" width="45.5" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -924,357 +919,397 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C24" s="11"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="11" t="s">
-        <v>134</v>
+        <v>46</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C32" s="6"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="6"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="6"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>39</v>
       </c>
@@ -1284,222 +1319,211 @@
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>94</v>
+        <v>43</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>105</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="5"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="8"/>
       <c r="C57" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="8"/>
       <c r="C58" s="5" t="s">
@@ -1507,144 +1531,115 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>120</v>
-      </c>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5"/>
+      <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E61" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="5" t="s">
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D63" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="D61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="6"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="5" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>4</v>
-      </c>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="5"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5"/>
+      <c r="B66" s="8"/>
       <c r="C66" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="14"/>
+        <v>141</v>
+      </c>
+      <c r="E66" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="5"/>
+      <c r="B67" s="8"/>
       <c r="C67" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D67" s="13"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="12"/>
       <c r="B68" s="14"/>
       <c r="C68" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D68" s="13"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="9"/>
       <c r="C70" s="6" t="s">
@@ -1652,7 +1647,7 @@
       </c>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="9"/>
       <c r="C71" s="6" t="s">
@@ -1662,547 +1657,550 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="A5:E72">
+    <sortCondition ref="A5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,16 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$65</definedName>
+  </definedNames>
   <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -444,20 +455,17 @@
     <t>Verweis auf die entsprechende Textstelle oder Kommentar</t>
   </si>
   <si>
-    <t>"insertion" - Einklebung; "insert" Einlage</t>
-  </si>
-  <si>
-    <t>subtypes? Zeitungsartikel, fremde, Baernreithers</t>
-  </si>
-  <si>
-    <t>"identical" gleicher Text in beiden Varianten; "missing" fehlt in der anderen Version</t>
+    <t>Art der Einklebung: "insertion" -&gt; Einklebung; "insert" -&gt;  Einlage</t>
+  </si>
+  <si>
+    <t>"equal" gleicher Text in beiden Varianten; "notEqual" Text unterschiedlich; "missing" fehlt in der anderen Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +477,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,10 +581,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -586,13 +625,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="9">
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -862,7 +915,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -873,39 +926,39 @@
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E72"/>
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="45.5" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -919,7 +972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -933,7 +986,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -943,7 +996,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -953,7 +1006,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>119</v>
       </c>
@@ -967,1237 +1020,1191 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>12</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>16</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>112</v>
-      </c>
+      <c r="D38" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8"/>
       <c r="C39" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>95</v>
+        <v>33</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>80</v>
-      </c>
+    <row r="41" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="48" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D47" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>14</v>
+        <v>43</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="0" hidden="1" x14ac:dyDescent="0">
+      <c r="A54" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B62" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="C62" s="5"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C63" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D63" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="64" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="C64" s="6"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:D65"/>
   <sortState ref="A5:E72">
     <sortCondition ref="A5"/>
   </sortState>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" refMode="R1C1" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -862,7 +862,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,10 +870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E72"/>
+      <selection activeCell="A63" sqref="A63:XFD64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1053,485 +1056,489 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>110</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="6" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>57</v>
+      <c r="A17" s="6"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
+    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="1"/>
+      <c r="A26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
+      <c r="A28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="C33" s="6"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B37" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
+      <c r="C37" s="6"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+    <row r="39" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>95</v>
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="6"/>
       <c r="D42" s="1"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
       <c r="C51" s="5"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>99</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B53" s="8"/>
       <c r="C53" s="5"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D56" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="C57" s="6"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="5"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="8"/>
       <c r="C59" s="5" t="s">
@@ -1541,7 +1548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="8"/>
       <c r="C60" s="5" t="s">
@@ -1549,28 +1556,25 @@
       </c>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="5"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="5"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="9"/>
       <c r="C63" s="6" t="s">
@@ -1580,7 +1584,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="8"/>
       <c r="C64" s="5" t="s">
@@ -2202,6 +2206,6 @@
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -9,7 +9,10 @@
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$65</definedName>
+  </definedNames>
+  <calcPr calcId="150000" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -444,20 +447,17 @@
     <t>Verweis auf die entsprechende Textstelle oder Kommentar</t>
   </si>
   <si>
-    <t>"insertion" - Einklebung; "insert" Einlage</t>
-  </si>
-  <si>
-    <t>subtypes? Zeitungsartikel, fremde, Baernreithers</t>
-  </si>
-  <si>
-    <t>"identical" gleicher Text in beiden Varianten; "missing" fehlt in der anderen Version</t>
+    <t>Art der Einklebung: "insertion" -&gt; Einklebung; "insert" -&gt;  Einlage</t>
+  </si>
+  <si>
+    <t>"equal" gleicher Text in beiden Varianten; "notEqual" Text unterschiedlich; "missing" fehlt in der anderen Version</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -469,6 +469,29 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -550,10 +573,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -586,12 +617,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -862,7 +903,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -870,13 +911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A1:E161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:XFD64"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -884,31 +922,31 @@
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="34.375" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="45.5" customWidth="1"/>
+    <col min="4" max="4" width="80.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -922,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -936,7 +974,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -946,7 +984,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -956,7 +994,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>119</v>
       </c>
@@ -970,696 +1008,648 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B11" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C13" s="6"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B16" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="17" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="11" t="s">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D19" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>104</v>
-      </c>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="C22" s="6"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
+    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="1"/>
+      <c r="A28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" t="s">
-        <v>98</v>
-      </c>
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="C35" s="6"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D37" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B40" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>93</v>
       </c>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="15"/>
+    </row>
+    <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B48" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>91</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C50" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D53" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="8"/>
-      <c r="C59" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="5"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="12"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="B60" s="8"/>
-      <c r="C60" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C60" s="5"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5"/>
-      <c r="B61" s="8"/>
-      <c r="C61" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="5"/>
-      <c r="B62" s="8"/>
-      <c r="C62" s="5" t="s">
-        <v>64</v>
-      </c>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C62" s="5"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="5"/>
-      <c r="B64" s="8"/>
-      <c r="C64" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>114</v>
-      </c>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5"/>
-      <c r="B65" s="8"/>
-      <c r="C65" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="A65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="5"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D68" s="13"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>140</v>
-      </c>
+      <c r="E66" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
@@ -2202,10 +2192,11 @@
       <c r="D161" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A4:D65"/>
   <sortState ref="A5:E72">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$65</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$66</definedName>
   </definedNames>
   <calcPr calcId="150000" iterateDelta="1E-4"/>
   <extLst>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -497,7 +497,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -507,6 +507,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,7 +590,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -623,6 +629,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -911,10 +927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1183,35 +1199,35 @@
       <c r="C23" s="5"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="C24" s="18"/>
+      <c r="D24" s="20"/>
+    </row>
+    <row r="25" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="20"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
@@ -1243,20 +1259,20 @@
       <c r="C29" s="5"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="20"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -1306,25 +1322,25 @@
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="20"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
@@ -1341,321 +1357,325 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="5"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B39" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D39" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="5" t="s">
+    <row r="40" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D40" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+    <row r="41" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="6" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E42" s="15"/>
-    </row>
-    <row r="43" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="5" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="C46" s="6"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B47" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D47" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="5" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="C49" s="6"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B50" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
+      <c r="C50" s="5"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B52" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6" t="s">
+      <c r="C52" s="5"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B53" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D53" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+    <row r="54" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D54" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="55" spans="1:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B55" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="5"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="12"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E55" s="17"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="1"/>
+      <c r="E56" s="17"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="3"/>
+      <c r="A58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="B61" s="8"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="3"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D64" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
+    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B65" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B66" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
@@ -2191,8 +2211,14 @@
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:D65"/>
+  <autoFilter ref="A4:D66"/>
   <sortState ref="A5:E72">
     <sortCondition ref="A5"/>
   </sortState>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,19 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$67</definedName>
   </definedNames>
-  <calcPr calcId="150000" iterateDelta="1E-4"/>
+  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -451,6 +459,9 @@
   </si>
   <si>
     <t>"equal" gleicher Text in beiden Varianten; "notEqual" Text unterschiedlich; "missing" fehlt in der anderen Version</t>
+  </si>
+  <si>
+    <t>diaryEntry für Tagebucheintrag</t>
   </si>
 </sst>
 </file>
@@ -641,15 +652,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Stand." xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -919,7 +930,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -927,28 +938,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="135" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="80.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="14"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
@@ -956,13 +967,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -976,7 +987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>115</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>28</v>
       </c>
@@ -1000,7 +1011,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1010,7 +1021,7 @@
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>119</v>
       </c>
@@ -1024,7 +1035,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
@@ -1034,7 +1045,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>123</v>
       </c>
@@ -1046,7 +1057,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>125</v>
       </c>
@@ -1060,7 +1071,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
@@ -1070,7 +1081,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1080,7 +1091,7 @@
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>32</v>
       </c>
@@ -1090,7 +1101,7 @@
       <c r="C14" s="5"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -1100,7 +1111,7 @@
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
@@ -1114,7 +1125,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>31</v>
       </c>
@@ -1129,7 +1140,7 @@
       </c>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="8"/>
       <c r="C18" s="5" t="s">
@@ -1140,7 +1151,7 @@
       </c>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12" t="s">
@@ -1151,7 +1162,7 @@
       </c>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
@@ -1165,1060 +1176,1068 @@
         <v>111</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>57</v>
-      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="C23" s="6"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B25" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="20"/>
-    </row>
-    <row r="25" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="C25" s="18"/>
+      <c r="D25" s="20"/>
+    </row>
+    <row r="26" spans="1:5" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="C26" s="5"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B27" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="C27" s="18"/>
+      <c r="D27" s="20"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B29" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B30" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B31" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+    <row r="36" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B36" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" s="21" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B37" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="C37" s="18"/>
+      <c r="D37" s="20"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B38" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="5" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D39" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+    <row r="40" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D40" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="18" t="s">
+    <row r="41" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D41" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+    <row r="42" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B43" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="6" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D45" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="5" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B47" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="C47" s="6"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D48" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="5" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="13"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D49" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="C50" s="6"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B51" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="C51" s="5"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B52" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+    <row r="55" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B55" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D55" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+    <row r="56" spans="1:5" s="13" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="12"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="5"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="17"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B58" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B61" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C60" s="12"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
+      <c r="B62" s="8"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="C64" s="5"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+    <row r="66" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A66" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B66" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="C66" s="6"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C67" s="5"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:D66"/>
+  <autoFilter ref="A4:D67"/>
   <sortState ref="A5:E72">
     <sortCondition ref="A5"/>
   </sortState>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$70</definedName>
   </definedNames>
   <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="151">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -462,6 +462,27 @@
   </si>
   <si>
     <t>diaryEntry für Tagebucheintrag</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>Auflösung von Abkürzungen</t>
+  </si>
+  <si>
+    <t>abbr</t>
+  </si>
+  <si>
+    <t>expan</t>
+  </si>
+  <si>
+    <t>Abkürzung</t>
+  </si>
+  <si>
+    <t>aufgelöste Abkürzung</t>
+  </si>
+  <si>
+    <t>soll nur eine Abkürzung markiert werden dann nur abbr</t>
   </si>
 </sst>
 </file>
@@ -938,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,607 +1133,621 @@
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D19" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C20" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="5" t="s">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
+      <c r="C22" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>143</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
+      <c r="C27" s="5"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B28" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="20"/>
-    </row>
-    <row r="26" spans="1:5" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="20"/>
+    </row>
+    <row r="29" spans="1:5" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B30" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="20"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="C30" s="18"/>
+      <c r="D30" s="20"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B31" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="C31" s="5"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B32" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B33" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="C33" s="5"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B34" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C34" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D34" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
+      <c r="E34" s="20"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="C35" s="5"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B36" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+    <row r="39" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A37" s="18" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B40" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="18"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
+      <c r="C40" s="18"/>
+      <c r="D40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B41" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C41" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D41" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="5"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="5" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D42" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
+    <row r="43" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B43" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C43" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D43" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="18" t="s">
+    <row r="44" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D44" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+    <row r="45" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="6" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="15"/>
-    </row>
-    <row r="45" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B48" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="13"/>
+      <c r="A49" s="5"/>
       <c r="B49" s="8"/>
       <c r="C49" s="5" t="s">
         <v>63</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="10" t="s">
-        <v>95</v>
+        <v>39</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>93</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B54" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="13" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="5" t="s">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="13" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="E57" s="17"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="6" t="s">
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B61" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="6" t="s">
+      <c r="C61" s="6"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B62" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
+      <c r="C62" s="6"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="1"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C64" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="C64" s="12"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="B65" s="8"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>65</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="B66" s="9"/>
       <c r="C66" s="6"/>
       <c r="D66" s="1"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E68" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="A68" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E71" s="1"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
@@ -2236,8 +2271,26 @@
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:D67"/>
+  <autoFilter ref="A4:D70"/>
   <sortState ref="A5:E72">
     <sortCondition ref="A5"/>
   </sortState>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BBC657-5227-D241-A8E9-59CE2F8D0B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13720" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="10620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$70</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$74</definedName>
   </definedNames>
-  <calcPr calcId="150000" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="160">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -56,9 +67,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>"volume" -&gt; Bandnummer; "short" -&gt;Kurztitel</t>
-  </si>
-  <si>
     <t>author</t>
   </si>
   <si>
@@ -359,9 +367,6 @@
     <t>Hervorhebung</t>
   </si>
   <si>
-    <t>"ul" -&gt; unterstrichen</t>
-  </si>
-  <si>
     <t>Tilgung durch den Autor</t>
   </si>
   <si>
@@ -483,12 +488,45 @@
   </si>
   <si>
     <t>soll nur eine Abkürzung markiert werden dann nur abbr</t>
+  </si>
+  <si>
+    <t>"volume" -&gt; Bandnummer; "short" -&gt;Kurztitel; "display" -&gt;Darstellung</t>
+  </si>
+  <si>
+    <t>respository</t>
+  </si>
+  <si>
+    <t>Aufbewahrungsort der Quelle</t>
+  </si>
+  <si>
+    <t>creation</t>
+  </si>
+  <si>
+    <t>Entstehungszeit des Textes</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>Angaben für den Index</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>Textteil</t>
+  </si>
+  <si>
+    <t>Schlagwort für Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"ul" -&gt; unterstrichen; </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -622,7 +660,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -655,9 +693,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -673,15 +708,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -958,11 +993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,13 +1010,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="14"/>
+      <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
@@ -989,7 +1024,7 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="14"/>
+      <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1008,52 +1043,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1063,33 +1098,33 @@
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>126</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
@@ -1099,679 +1134,698 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>146</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>148</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>147</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>149</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="D19" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="8" t="s">
+    </row>
+    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="12" t="s">
-        <v>134</v>
+      <c r="C22" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="D24" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="5"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="19"/>
+    </row>
+    <row r="30" spans="1:5" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:5" s="13" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="20"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E34" s="20"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D36" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="5"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>154</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:5" s="21" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="20"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="19"/>
+    </row>
+    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="3" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B43" s="19" t="s">
+      <c r="D44" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="C43" s="18" t="s">
+    </row>
+    <row r="46" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D44" s="20" t="s">
+      <c r="D46" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A46" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E47" s="15"/>
-    </row>
-    <row r="48" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>112</v>
-      </c>
+    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="5"/>
+      <c r="B51" s="8"/>
       <c r="C51" s="5" t="s">
         <v>62</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>64</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" s="6"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="D59" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="8" t="s">
+    </row>
+    <row r="60" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D60" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="13" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="13" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" s="13" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E60" s="17"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="E62" s="16"/>
+    </row>
+    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+      <c r="C65" s="6"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B68" s="8"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
+      <c r="B70" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B72" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B69" s="9" t="s">
+      <c r="D72" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C69" s="6"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E71" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E75" s="1"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
@@ -2289,9 +2343,33 @@
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="1"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:D70"/>
-  <sortState ref="A5:E72">
+  <autoFilter ref="A4:D74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E76">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45BBC657-5227-D241-A8E9-59CE2F8D0B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB028647-D076-4068-AC90-548F833F77AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="10620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$4:$D$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,6 +33,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="161">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -100,9 +103,6 @@
     <t>forename</t>
   </si>
   <si>
-    <t>surename</t>
-  </si>
-  <si>
     <t>resp</t>
   </si>
   <si>
@@ -118,9 +118,6 @@
     <t>measure</t>
   </si>
   <si>
-    <t>publicationsStmt</t>
-  </si>
-  <si>
     <t>publisher</t>
   </si>
   <si>
@@ -521,6 +518,15 @@
   </si>
   <si>
     <t xml:space="preserve">"ul" -&gt; unterstrichen; </t>
+  </si>
+  <si>
+    <t>publicationStmt</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>tei</t>
   </si>
 </sst>
 </file>
@@ -660,7 +666,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -706,6 +712,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -994,28 +1001,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="135" workbookViewId="0">
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="80.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.375" customWidth="1"/>
+    <col min="2" max="2" width="34.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="80.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1023,13 +1030,13 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1043,101 +1050,101 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="D8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="8"/>
       <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="D11" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="8"/>
       <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
@@ -1147,165 +1154,165 @@
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="3"/>
     </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>147</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="8"/>
       <c r="C22" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="8"/>
       <c r="C26" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>10</v>
       </c>
@@ -1315,37 +1322,37 @@
       <c r="C28" s="5"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:5" s="20" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C29" s="17"/>
       <c r="D29" s="19"/>
     </row>
-    <row r="30" spans="1:5" s="13" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
@@ -1355,122 +1362,122 @@
       <c r="C32" s="5"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>59</v>
-      </c>
       <c r="D35" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E35" s="19"/>
     </row>
-    <row r="36" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="1:5" s="20" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" s="20" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="17"/>
       <c r="D42" s="19"/>
     </row>
-    <row r="43" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>4</v>
@@ -1479,195 +1486,195 @@
         <v>7</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="8"/>
       <c r="C44" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="20" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="18"/>
       <c r="C46" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="9"/>
       <c r="C49" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E49" s="14"/>
     </row>
-    <row r="50" spans="1:5" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="8"/>
       <c r="C51" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="21"/>
       <c r="B54" s="8"/>
       <c r="C54" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
-        <v>25</v>
+        <v>158</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="D59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>4</v>
@@ -1676,51 +1683,51 @@
         <v>7</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="13" customFormat="1" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:5" s="13" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12"/>
       <c r="B62" s="15"/>
       <c r="C62" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E62" s="16"/>
     </row>
-    <row r="63" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>12</v>
       </c>
@@ -1730,646 +1737,654 @@
       <c r="C65" s="6"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="B68" s="8"/>
-      <c r="C68" s="5"/>
+      <c r="C68" s="12"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B69" s="8"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A70" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="C70" s="6"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C71" s="5"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="C70" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B73" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="A73" s="6" t="s">
+      <c r="D73" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B74" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
     </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A4:D74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E76">
+  <autoFilter ref="A4:D75" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E77">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\rh\github\baernreither-data\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE1A8758-4EAC-4C06-B3D7-6DF51EB9999B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ACB14E-EDCA-AB42-B9F9-1A4580C25938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -30,9 +30,6 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -41,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -481,9 +478,6 @@
     <t>"volume" -&gt; Bandnummer; "short" -&gt;Kurztitel; "display" -&gt;Darstellung</t>
   </si>
   <si>
-    <t>respository</t>
-  </si>
-  <si>
     <t>Aufbewahrungsort der Quelle</t>
   </si>
   <si>
@@ -508,9 +502,6 @@
     <t>Schlagwort für Index</t>
   </si>
   <si>
-    <t xml:space="preserve">"ul" -&gt; unterstrichen; </t>
-  </si>
-  <si>
     <t>publicationStmt</t>
   </si>
   <si>
@@ -518,6 +509,30 @@
   </si>
   <si>
     <t>tei</t>
+  </si>
+  <si>
+    <t>editionStmt</t>
+  </si>
+  <si>
+    <t>repository</t>
+  </si>
+  <si>
+    <t>Angabe wotz der anchor dient</t>
+  </si>
+  <si>
+    <t>"ul" -&gt; unterstrichen; "s" -&gt; durchgestrichen; "g" -&gt; gesperrt; "b" -&gt;fett</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>Ziel des Verweises; URL</t>
+  </si>
+  <si>
+    <t>xmlns</t>
+  </si>
+  <si>
+    <t>Namensraum der xml-Elemente;</t>
   </si>
 </sst>
 </file>
@@ -650,7 +665,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -693,7 +708,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Besuchter Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -982,26 +996,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F555D62-3D21-43B1-8E54-5412E5189ACA}">
-  <dimension ref="A2:D75"/>
+  <dimension ref="A2:D95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="33.25" customWidth="1"/>
-    <col min="4" max="4" width="66.125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="66.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="85" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1009,13 +1023,13 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1029,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>109</v>
       </c>
@@ -1043,764 +1057,1010 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B8" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="C8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="5" t="s">
+    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="C13" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B15" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="5" t="s">
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="5"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+    <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="C18" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B21" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B22" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="3" t="s">
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="C23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B24" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="C26" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B48" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="C48" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D49" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="15"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B46" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" s="9"/>
       <c r="C50" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="17"/>
+    </row>
+    <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A57" s="5"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="15"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D60" s="17"/>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="6"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="6"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C65" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D65" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="5"/>
-      <c r="B52" s="8"/>
-      <c r="C52" s="5" t="s">
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="5"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D66" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="5"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="C68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="18"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="5" t="s">
+    <row r="70" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="13"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D70" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="6" t="s">
+    <row r="71" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="13"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="C72" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="12"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="B85" s="8"/>
+      <c r="C85" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="5"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="5"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="6"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="6"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="5"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="6"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="6" t="s">
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B94" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="C94" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B95" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="3"/>
+      <c r="C95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
+++ b/docs/Uebersicht_Elemente_Baernreither-Edition_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10118"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christofaichner/Documents/GitHub/baernreither-data/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1ACB14E-EDCA-AB42-B9F9-1A4580C25938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C614913-5FB2-6A48-BFA0-962BD137F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="168">
   <si>
     <t>Übersicht über die für Baernreither-Edition verwendeten Elemtente</t>
   </si>
@@ -445,9 +445,6 @@
     <t>Verweis auf die entsprechende Textstelle oder Kommentar</t>
   </si>
   <si>
-    <t>Art der Einklebung: "insertion" -&gt; Einklebung; "insert" -&gt;  Einlage</t>
-  </si>
-  <si>
     <t>"equal" gleicher Text in beiden Varianten; "notEqual" Text unterschiedlich; "missing" fehlt in der anderen Version</t>
   </si>
   <si>
@@ -533,6 +530,18 @@
   </si>
   <si>
     <t>Namensraum der xml-Elemente;</t>
+  </si>
+  <si>
+    <t>Art der Einklebung: "insertion" -&gt; Einklebung; "insert" -&gt;  Einlage; "addition" -&gt;Hinzufügung (z.B. auf gegenüberliegenden Seite)</t>
+  </si>
+  <si>
+    <t>subtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"shorthand" </t>
+  </si>
+  <si>
+    <t>"gabelsberger"</t>
   </si>
 </sst>
 </file>
@@ -996,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F555D62-3D21-43B1-8E54-5412E5189ACA}">
-  <dimension ref="A2:D95"/>
+  <dimension ref="A2:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="158" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="158" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1118,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1140,7 +1149,7 @@
         <v>133</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
@@ -1172,7 +1181,7 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1213,10 +1222,10 @@
     </row>
     <row r="21" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>138</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>139</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>60</v>
@@ -1225,586 +1234,582 @@
     </row>
     <row r="22" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="C25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="C28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B29" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C29" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="12" t="s">
-        <v>128</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="C30" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B33" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+    <row r="34" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D35" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="5" t="s">
+    <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="D36" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B38" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
+      <c r="C38" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="15" t="s">
+      <c r="C39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B40" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="B39" s="16" t="s">
+      <c r="C40" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B41" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
+      <c r="C41" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B42" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="C42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B43" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
+      <c r="C43" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B44" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A43" s="6" t="s">
+      <c r="C44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B45" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="C45" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B46" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="15" t="s">
+      <c r="C46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B47" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="17" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="15"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="D47" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B49" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="C49" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
+      <c r="C50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B51" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D51" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="6"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B53" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
+      <c r="C53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B54" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
-      <c r="C53" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
+    <row r="55" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B56" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="15" t="s">
+      <c r="C56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B57" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
+      <c r="C57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="17"/>
+    </row>
+    <row r="58" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B58" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D58" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A57" s="5"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="5" t="s">
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="5"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="15" t="s">
+    <row r="60" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B60" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="17" t="s">
+      <c r="D60" s="17" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="15"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="15" t="s">
+    <row r="61" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="15"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="17" t="s">
+      <c r="D61" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="15"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
+    <row r="62" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D62" s="17"/>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B63" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
+      <c r="C63" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B64" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D64" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="6" t="s">
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A64" s="6"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="5" t="s">
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="6"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B67" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D67" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A66" s="5"/>
-      <c r="B66" s="8"/>
-      <c r="C66" s="5" t="s">
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="5"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D68" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A67" s="5"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" s="5"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
+      <c r="C70" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D71" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="8"/>
-      <c r="C70" s="5" t="s">
+    <row r="72" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="13"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D72" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="8"/>
-      <c r="C71" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>75</v>
-      </c>
+    <row r="73" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="13"/>
+      <c r="B73" s="8"/>
       <c r="C73" s="5" t="s">
         <v>60</v>
       </c>
@@ -1812,180 +1817,184 @@
     </row>
     <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B76" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="C76" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>126</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B79" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A78" s="5"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="5" t="s">
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A79" s="12"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="5" t="s">
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="12"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D81" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A80" s="6" t="s">
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B82" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C80" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A82" s="6" t="s">
+      <c r="C82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A84" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B84" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C82" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B84" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D84" s="3"/>
+      <c r="C84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>60</v>
       </c>
       <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A86" s="5"/>
-      <c r="B86" s="8"/>
+      <c r="A86" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C86" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>164</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="8"/>
+      <c r="C87" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A88" s="5"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A89" s="5"/>
       <c r="B89" s="8"/>
       <c r="C89" s="5" t="s">
         <v>60</v>
@@ -1993,74 +2002,94 @@
       <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
+      <c r="A90" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A91" s="5" t="s">
+      <c r="B92" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B93" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A92" s="5" t="s">
+      <c r="C93" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C94" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A93" s="5"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" ht="34" x14ac:dyDescent="0.2">
-      <c r="A94" s="6" t="s">
+      <c r="D94" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="5"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A96" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B96" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A95" s="5" t="s">
+      <c r="C96" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B97" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D95" s="3"/>
+      <c r="C97" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
